--- a/Generation_Year.xlsx
+++ b/Generation_Year.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Monthly Generation (Plant 9209949):</t>
+    <t>Monthly Generation (Plant 5340310):</t>
   </si>
   <si>
     <t>Months</t>

--- a/Generation_Year.xlsx
+++ b/Generation_Year.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Monthly Generation (Plant 5340310):</t>
+    <t>Monthly Generation (Plant 9209949):</t>
   </si>
   <si>
     <t>Months</t>
